--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\yuhong_thesis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57431143-ADAE-4C40-A2F4-AC3FD5A246DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,20 +27,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">s1</t>
+    <t>s1</t>
   </si>
   <si>
-    <t xml:space="preserve">s2</t>
+    <t>s2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -44,33 +46,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -95,7 +80,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -103,57 +88,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -212,28 +166,336 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="50.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -241,53 +503,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>6000</v>
+    <row r="2" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>9000</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>7000</v>
+      <c r="B2" s="2">
+        <v>8000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>7000</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>5000</v>
-      </c>
+    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>4000</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>3000</v>
-      </c>
+    <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>4000</v>
-      </c>
+    <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.45"/>
   </cols>
@@ -266,8 +266,44 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7240</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7542</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6542</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8542</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>9545</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.45"/>
   </cols>
@@ -305,6 +305,384 @@
         <v>9545</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8543</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>9546</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>8564</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>9567</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>8565</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>9568</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>8566</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>9569</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6001</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>6002</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>6003</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>6004</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>6005</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>7005</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>6006</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>7006</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>6007</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>7007</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>6008</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>7008</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6009</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>6010</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6011</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>7011</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>6012</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>7012</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>6013</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>7013</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>6014</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>7014</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>6015</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>7015</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>6016</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>7016</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>6017</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>7017</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>6018</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>7018</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>6019</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>7019</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>6020</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>6021</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>7021</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>6022</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>7022</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>6023</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>6024</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>7024</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>6025</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>6026</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>7026</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>6027</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>7027</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>6028</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>7028</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>6029</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>7029</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>6030</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>6031</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>6032</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>7032</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>6033</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>7033</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>6034</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>7034</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>6035</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>7035</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>6036</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
